--- a/src/attributions/attributions_saliency_traj_210.xlsx
+++ b/src/attributions/attributions_saliency_traj_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG7"/>
+  <dimension ref="A1:GG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,1709 +1004,1709 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05371663719415665</v>
+        <v>0.4317457973957062</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06568551063537598</v>
+        <v>0.09696872532367706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5694096088409424</v>
+        <v>0.3666818737983704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26016965508461</v>
+        <v>0.3046178221702576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02919214963912964</v>
+        <v>0.2719337642192841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1385487020015717</v>
+        <v>0.1746564209461212</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1228993162512779</v>
+        <v>0.02559090778231621</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005448440089821815</v>
+        <v>0.09328149259090424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3475163578987122</v>
+        <v>0.0005832687020301819</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1381431967020035</v>
+        <v>0.322553426027298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.136726126074791</v>
+        <v>0.3315941691398621</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6431717872619629</v>
+        <v>0.3652057647705078</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04352058097720146</v>
+        <v>0.2776874303817749</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07120249420404434</v>
+        <v>0.3702609539031982</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1578981280326843</v>
+        <v>0.2336161434650421</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08897176384925842</v>
+        <v>0.009221352636814117</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01018435508012772</v>
+        <v>0.09586178511381149</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4456073939800262</v>
+        <v>0.1079136803746223</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03020522743463516</v>
+        <v>0.04671387001872063</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01683960482478142</v>
+        <v>0.07372985035181046</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08059966564178467</v>
+        <v>0.001262631267309189</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0127941370010376</v>
+        <v>0.06827754527330399</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01618382893502712</v>
+        <v>0.1334851533174515</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09231645613908768</v>
+        <v>0.1780025362968445</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02255109697580338</v>
+        <v>0.1142914295196533</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05849874764680862</v>
+        <v>0.1063687577843666</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06968848407268524</v>
+        <v>0.1251490861177444</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1016917526721954</v>
+        <v>0.123664453625679</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06831581890583038</v>
+        <v>0.105770468711853</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01323279179632664</v>
+        <v>0.2249586284160614</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0133338775485754</v>
+        <v>0.2514701187610626</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1630972474813461</v>
+        <v>0.1649634838104248</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02359073609113693</v>
+        <v>0.05754067748785019</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1100528538227081</v>
+        <v>0.1785735338926315</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0190594345331192</v>
+        <v>0.03047837689518929</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1047772243618965</v>
+        <v>0.07146824151277542</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04073154181241989</v>
+        <v>0.01424556225538254</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.07098174095153809</v>
+        <v>0.0280750747770071</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.09801586717367172</v>
+        <v>0.07616070657968521</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.02480526454746723</v>
+        <v>0.125540018081665</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0602232925593853</v>
+        <v>0.1548994034528732</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.03938448801636696</v>
+        <v>0.02826934494078159</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.05864910408854485</v>
+        <v>0.01653195917606354</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0405983105301857</v>
+        <v>0.05871730297803879</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.02169498801231384</v>
+        <v>0.05094351246953011</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.09460790455341339</v>
+        <v>0.006444226950407028</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1567221581935883</v>
+        <v>0.06841783225536346</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.3731231987476349</v>
+        <v>0.3440301418304443</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.002128524705767632</v>
+        <v>0.3395833075046539</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2159855365753174</v>
+        <v>0.3237508535385132</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.2078801393508911</v>
+        <v>0.2641125917434692</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.07826379686594009</v>
+        <v>0.00646541640162468</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02760093286633492</v>
+        <v>0.06751683354377747</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.01174260675907135</v>
+        <v>0.08337536454200745</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.03063393756747246</v>
+        <v>0.2215040922164917</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1157746836543083</v>
+        <v>0.2331560552120209</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.04567335546016693</v>
+        <v>0.04481923580169678</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.2034978121519089</v>
+        <v>0.2481523901224136</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1775533109903336</v>
+        <v>0.02565539442002773</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.09616386890411377</v>
+        <v>0.08334650844335556</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1009939685463905</v>
+        <v>0.08946362137794495</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04470876604318619</v>
+        <v>0.06895175576210022</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1871847659349442</v>
+        <v>0.1157230511307716</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02341783605515957</v>
+        <v>0.06804687529802322</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1187889501452446</v>
+        <v>0.2697005569934845</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1886833906173706</v>
+        <v>0.163377970457077</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02472884580492973</v>
+        <v>0.2491447180509567</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1793531775474548</v>
+        <v>0.358708530664444</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.05395910516381264</v>
+        <v>0.204328179359436</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1297411620616913</v>
+        <v>0.1488822549581528</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1557507961988449</v>
+        <v>0.08275240659713745</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.09621914476156235</v>
+        <v>0.01005341298878193</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1394563913345337</v>
+        <v>0.1172900050878525</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1672113537788391</v>
+        <v>0.0503774918615818</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.09871125966310501</v>
+        <v>0.07059163600206375</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.05966303870081902</v>
+        <v>0.2110860198736191</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03067320212721825</v>
+        <v>0.2202204316854477</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.08887913078069687</v>
+        <v>0.1506305336952209</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.08116067945957184</v>
+        <v>0.02058343961834908</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.02158825658261776</v>
+        <v>0.07967468351125717</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02316894754767418</v>
+        <v>0.002716481685638428</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.01303441170603037</v>
+        <v>0.04102838039398193</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1197596192359924</v>
+        <v>0.05988713726401329</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1160098016262054</v>
+        <v>0.01236541569232941</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.01718662679195404</v>
+        <v>0.0142861707136035</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03206577152013779</v>
+        <v>0.06165484711527824</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.02316904067993164</v>
+        <v>0.02312708273530006</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02819806151092052</v>
+        <v>0.01196302659809589</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0008722689235582948</v>
+        <v>0.00594697380438447</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.03910485655069351</v>
+        <v>0.002423612400889397</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0538003221154213</v>
+        <v>0.07006092369556427</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02497095242142677</v>
+        <v>0.201324999332428</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.08612728863954544</v>
+        <v>0.1574775576591492</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.06003929674625397</v>
+        <v>0.2124117612838745</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.216685950756073</v>
+        <v>0.2802681624889374</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.08844032883644104</v>
+        <v>0.07454010844230652</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.01576138660311699</v>
+        <v>0.005289830267429352</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.06277677416801453</v>
+        <v>0.1850631088018417</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.1443047821521759</v>
+        <v>0.02266299352049828</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01278193574398756</v>
+        <v>0.03602177649736404</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.1198436617851257</v>
+        <v>0.09469244629144669</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.1006305441260338</v>
+        <v>0.0192976538091898</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01260217372328043</v>
+        <v>0.02976801246404648</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004174890927970409</v>
+        <v>0.08108235150575638</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.05694384872913361</v>
+        <v>0.01970912516117096</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02276073768734932</v>
+        <v>0.002048660535365343</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.01668102853000164</v>
+        <v>0.05259209126234055</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.07205399870872498</v>
+        <v>0.03052016720175743</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.003303710371255875</v>
+        <v>0.2857606410980225</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.188366174697876</v>
+        <v>0.01858188211917877</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.116096518933773</v>
+        <v>0.04469890519976616</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.08731377869844437</v>
+        <v>0.0975680947303772</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.05560978874564171</v>
+        <v>0.2070495784282684</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.003988172858953476</v>
+        <v>0.007652443833649158</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.003983810544013977</v>
+        <v>0.001055963337421417</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.03128712251782417</v>
+        <v>0.1650792509317398</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0005942285060882568</v>
+        <v>0.05650763958692551</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.04339306801557541</v>
+        <v>0.06214948371052742</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.001553185284137726</v>
+        <v>0.1017008647322655</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01370190642774105</v>
+        <v>0.2296880483627319</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02149085700511932</v>
+        <v>0.19606913626194</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.1061491817235947</v>
+        <v>0.1945588737726212</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.08621619641780853</v>
+        <v>0.09164386987686157</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.04866769537329674</v>
+        <v>0.08962638676166534</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.02475864812731743</v>
+        <v>0.0007661022245883942</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.07725898921489716</v>
+        <v>0.04540139436721802</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.05178100615739822</v>
+        <v>0.0705496221780777</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.02797308564186096</v>
+        <v>0.09237616509199142</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.002534475177526474</v>
+        <v>0.02400778420269489</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.02213998325169086</v>
+        <v>0.09116265922784805</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.1269378215074539</v>
+        <v>0.1094322055578232</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.08596879243850708</v>
+        <v>0.03556929156184196</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.08485423028469086</v>
+        <v>0.09638170152902603</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01524614077061415</v>
+        <v>0.1381801664829254</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.1032525151968002</v>
+        <v>0.007242221385240555</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03540488705039024</v>
+        <v>0.08056846261024475</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.08503134548664093</v>
+        <v>0.06923902034759521</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.1198591440916061</v>
+        <v>0.01328916847705841</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.08903270959854126</v>
+        <v>0.1486368030309677</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02757271379232407</v>
+        <v>0.02418495342135429</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.2152116000652313</v>
+        <v>0.05307637155056</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0335448756814003</v>
+        <v>0.004880630411207676</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.08062486350536346</v>
+        <v>0.002211355604231358</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.02569365501403809</v>
+        <v>0.0527462475001812</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.1013361513614655</v>
+        <v>0.03881866857409477</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.2137880027294159</v>
+        <v>0.1942286044359207</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0482441782951355</v>
+        <v>0.121866911649704</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.08087015151977539</v>
+        <v>0.2265482544898987</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.08583754301071167</v>
+        <v>0.06368917971849442</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1224473863840103</v>
+        <v>0.003236521035432816</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.01946187764406204</v>
+        <v>0.0788177102804184</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.004413068294525146</v>
+        <v>0.04692720249295235</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0394764356315136</v>
+        <v>0.1224927306175232</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.02938083186745644</v>
+        <v>0.02858073450624943</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.09150021523237228</v>
+        <v>0.1258734911680222</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.09484047442674637</v>
+        <v>0.05405265092849731</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.02424890361726284</v>
+        <v>0.01592289097607136</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.027710922062397</v>
+        <v>0.06448178738355637</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.02130497805774212</v>
+        <v>0.08071964979171753</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.02588131837546825</v>
+        <v>0.0171919260174036</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01207661163061857</v>
+        <v>0.08669847249984741</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.05844376236200333</v>
+        <v>0.009965311735868454</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02139939367771149</v>
+        <v>0.07653912156820297</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.002106931060552597</v>
+        <v>0.1160339713096619</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.09193223714828491</v>
+        <v>0.08581753075122833</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.03434562683105469</v>
+        <v>0.03995795547962189</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.1379121243953705</v>
+        <v>0.003600981086492538</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0103685911744833</v>
+        <v>0.1837790608406067</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01688550040125847</v>
+        <v>0.06766637414693832</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.09505850076675415</v>
+        <v>0.00518031558021903</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.07316094636917114</v>
+        <v>0.07151727378368378</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.216778427362442</v>
+        <v>0.01810842007398605</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0684516653418541</v>
+        <v>0.02153335697948933</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.1458695083856583</v>
+        <v>0.01789893954992294</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1188616305589676</v>
+        <v>0.1528459191322327</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1080645024776459</v>
+        <v>0.06826461851596832</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.04123701527714729</v>
+        <v>0.09909888356924057</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.00278438744135201</v>
+        <v>0.0383005253970623</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0399959571659565</v>
+        <v>0.1133747175335884</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.084842748939991</v>
+        <v>0.1420974880456924</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.1140373051166534</v>
+        <v>0.125412330031395</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.05850844457745552</v>
+        <v>0.1870414614677429</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.05589853972196579</v>
+        <v>0.08679941296577454</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0906796008348465</v>
+        <v>0.08077190071344376</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.06851761788129807</v>
+        <v>0.02297056093811989</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01551047619432211</v>
+        <v>0.07798212021589279</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.04107420146465302</v>
+        <v>0.1047233268618584</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.03541017696261406</v>
+        <v>0.3475302159786224</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.07566557079553604</v>
+        <v>0.07078655064105988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.942943062109407e-07</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.019953742797952e-05</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.305374096067681e-07</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.271917754929746e-06</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.819178219710011e-06</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.914863893645816e-08</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.24525727693981e-07</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.259038749092724e-06</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.511087814127677e-06</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.746435939116054e-06</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.169014740298735e-05</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.856867240552674e-06</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.335335634346848e-07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.345730530985747e-07</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.037349183112383e-06</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.26813164469786e-06</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.022410848847358e-08</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.452469056559494e-06</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.288579028368986e-06</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.807645614666399e-06</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.577539933350636e-06</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.457480488577858e-06</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.01358113574679e-06</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.48914602707373e-06</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.278289573747315e-06</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.477139555092435e-06</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.041609716092353e-06</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.750287634029519e-06</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.940797341783764e-06</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.93813718851743e-07</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.551494273779099e-06</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.372178985548089e-06</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.094565388688352e-06</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.29905230703298e-06</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.906503598547715e-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.434877483727178e-07</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.078379328755545e-07</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.901430075842654e-07</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.087233727048442e-06</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.261531562908203e-06</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.289629264851101e-06</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.127613242919324e-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.066275785888138e-06</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.261902298210771e-06</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.274943315365817e-06</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.946357087945216e-06</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.499483343854081e-06</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.662814949871972e-06</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.868286856028135e-06</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.390961526543833e-06</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>7.457340984728944e-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6.82509892158123e-07</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.103778231481556e-06</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.349829618557123e-06</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>7.223299007819151e-07</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>3.483137561488547e-06</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.718781843213947e-06</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>4.474590696190717e-06</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.076199845963856e-06</v>
+        <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>5.351918730411853e-07</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>4.693868959293468e-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>7.434995268340572e-07</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>6.096890956541756e-06</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.725873175928427e-06</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.130160853790585e-06</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.761085854923294e-06</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.066515889964649e-06</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.909838142135413e-07</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.592693820384739e-06</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.634107547943131e-06</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>3.34544984070817e-06</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>7.532212009664363e-08</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.487768597347895e-06</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>3.686273828407138e-07</v>
+        <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.576560291345231e-06</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.177484705294773e-06</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.601250571387936e-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.099516223097453e-06</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>3.227104116376722e-06</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>8.099033834696456e-07</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>5.078748472442385e-06</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.468329173803795e-07</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.284504716953961e-06</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>8.840760301609407e-07</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>3.235874601159594e-06</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.22839344132808e-06</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>7.567385296169959e-07</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.397206225803529e-07</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>7.698550916757085e-07</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>4.731636806809547e-07</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>3.222890882170759e-06</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>8.123062798404135e-06</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.101499265132588e-07</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>5.662180683430051e-06</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>6.26795213065634e-07</v>
+        <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.205610599048669e-06</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.208005071224761e-06</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.44779153035779e-06</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>6.232192845345708e-06</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>4.345389470472583e-07</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>2.430144149911939e-06</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.588995458718273e-07</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.543110895203426e-06</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.445433667868201e-06</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>5.349777438823367e-07</v>
+        <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>7.153469141485402e-07</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>5.312382995725784e-07</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>7.158835160225863e-07</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>4.43062936028582e-06</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.959702432141057e-07</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.611913603483117e-06</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>3.329958190079196e-06</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.271170617656026e-06</v>
+        <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.05926319520222e-05</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>5.179007075639674e-06</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.074091637245147e-06</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>7.894606824265793e-06</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>4.325319878262235e-06</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>3.443222738042095e-07</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>3.85041175832157e-06</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.232646582138841e-06</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3.837941221718211e-06</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.904453140217811e-06</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.212250595017395e-06</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.535937599328463e-07</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.634958493923477e-06</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.734902525640791e-06</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>3.512752755341353e-07</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>7.697721002841718e-07</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.301851995094694e-07</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>6.806521923863329e-06</v>
+        <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>2.3081993276719e-06</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>2.174939908172746e-07</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>3.14347767016443e-06</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>6.538414254464442e-06</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.663659986661514e-06</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>6.780525836802553e-06</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>3.06733625166089e-07</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>5.067108304501744e-06</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>7.362897349594277e-07</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
-        <v>3.220865664843586e-06</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>4.146622814005241e-07</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>2.821136035890959e-07</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>3.888390892825555e-06</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.553644324303605e-07</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>2.15694399230415e-06</v>
+        <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>9.347759828415292e-07</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>3.894008386851056e-06</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>5.656423127220478e-06</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.584063056725427e-06</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>2.820285317284288e-06</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.067126277121133e-06</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>4.072217620887386e-07</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.640936488911393e-07</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.585528593750496e-06</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>9.839444601311698e-07</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.244218876512605e-06</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>5.132636715643457e-07</v>
+        <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.163027292250263e-07</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.625636691926502e-08</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>8.639848942948447e-07</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.728321639253409e-07</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>3.354204181960085e-06</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>2.09901986636396e-06</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>9.966436209651874e-07</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.75173667571471e-07</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>3.599528099584859e-06</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>2.345554776184144e-06</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.95818028159556e-06</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>4.716092462331289e-06</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>1.519064994681685e-06</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>8.790168976702262e-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.781570972525515e-06</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>2.726068942138227e-06</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>3.026244939974276e-06</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>6.056794518372044e-06</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>3.906942765752319e-06</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>3.76027651327604e-06</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>1.791942963791371e-06</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>4.431543402461102e-06</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.89526531357842e-06</v>
+        <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>3.773157004616223e-06</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>2.748341330516268e-06</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>5.741587756347144e-07</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.505029104009736e-06</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>3.916322384611703e-06</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
-        <v>3.123283022432588e-06</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>6.536930641232175e-07</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>4.063568667334039e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006855051033198833</v>
+        <v>0.1128925681114197</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001301286625675857</v>
+        <v>0.06247546151280403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001035841181874275</v>
+        <v>0.1020292937755585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01676378399133682</v>
+        <v>0.04657458513975143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02532518282532692</v>
+        <v>0.3049278855323792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006228779908269644</v>
+        <v>0.3265905678272247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009337255731225014</v>
+        <v>0.06536423414945602</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003467414760962129</v>
+        <v>0.04023499041795731</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005034219939261675</v>
+        <v>0.1238593608140945</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01010298915207386</v>
+        <v>0.06230758875608444</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004995023366063833</v>
+        <v>0.131327748298645</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005416416097432375</v>
+        <v>0.02886614575982094</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003606881946325302</v>
+        <v>0.1218326389789581</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00556268822401762</v>
+        <v>0.06560825556516647</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008725031279027462</v>
+        <v>0.1509584337472916</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008488612249493599</v>
+        <v>0.07463701814413071</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00703119533136487</v>
+        <v>0.03147521615028381</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0005284365033730865</v>
+        <v>0.1336309313774109</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001313159358687699</v>
+        <v>0.004231871105730534</v>
       </c>
       <c r="T4" t="n">
-        <v>0.006414449773728848</v>
+        <v>0.06077767536044121</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001226642169058323</v>
+        <v>0.0009306035935878754</v>
       </c>
       <c r="V4" t="n">
-        <v>8.476688526570797e-05</v>
+        <v>0.06185495480895042</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01378463581204414</v>
+        <v>0.1067399233579636</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01207139529287815</v>
+        <v>0.03538506105542183</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.006335045676678419</v>
+        <v>0.01960759051144123</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.006475177593529224</v>
+        <v>0.03457504510879517</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001037885202094913</v>
+        <v>0.008707967586815357</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.005173336714506149</v>
+        <v>0.04655283316969872</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.006165171507745981</v>
+        <v>0.07569672167301178</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002518492983654141</v>
+        <v>0.01369195897132158</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.008361015468835831</v>
+        <v>0.01271482743322849</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0004157378280069679</v>
+        <v>0.09586869180202484</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.00209585321135819</v>
+        <v>0.1023038029670715</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.002212191931903362</v>
+        <v>0.06959076225757599</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.000768257537856698</v>
+        <v>0.02008513733744621</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.001921689254231751</v>
+        <v>0.03549447655677795</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.002910776529461145</v>
+        <v>0.03026756644248962</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.006315600126981735</v>
+        <v>0.02023897133767605</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.001855954411439598</v>
+        <v>0.06459648907184601</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01060779206454754</v>
+        <v>0.04831760376691818</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.003311598440632224</v>
+        <v>0.01580812968313694</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.003668006043881178</v>
+        <v>0.02367331460118294</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.006384870503097773</v>
+        <v>0.01970479637384415</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.000871750118676573</v>
+        <v>0.009527655318379402</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.000582486332859844</v>
+        <v>0.01873971521854401</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.006817506160587072</v>
+        <v>0.05399525910615921</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.004288119729608297</v>
+        <v>0.04953357204794884</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.003371639177203178</v>
+        <v>0.07538469135761261</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01459148898720741</v>
+        <v>0.0973372608423233</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01920787990093231</v>
+        <v>0.3495232462882996</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01225840393453836</v>
+        <v>0.3079113364219666</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001634127693250775</v>
+        <v>0.01579789631068707</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.003534168936312199</v>
+        <v>0.1249243021011353</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.004066853318363428</v>
+        <v>0.01965820044279099</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.005273696035146713</v>
+        <v>0.02944974228739738</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.000666758744046092</v>
+        <v>0.08638626337051392</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001020126044750214</v>
+        <v>0.0611514076590538</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.003973638173192739</v>
+        <v>0.02379385381937027</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.001542579382658005</v>
+        <v>0.1314621120691299</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.01525883749127388</v>
+        <v>0.02978906966745853</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.007224092725664377</v>
+        <v>0.000298134982585907</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.002697983058169484</v>
+        <v>0.009012271650135517</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.004728566389530897</v>
+        <v>0.09913018345832825</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.003688873955979943</v>
+        <v>0.06582002341747284</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.002929230220615864</v>
+        <v>0.003221811726689339</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.005661184433847666</v>
+        <v>0.05949012190103531</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0004247408360242844</v>
+        <v>0.1305087804794312</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.003989714197814465</v>
+        <v>0.05225165188312531</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.004592208191752434</v>
+        <v>0.1023606359958649</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.004528040997684002</v>
+        <v>0.07520164549350739</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.007609534077346325</v>
+        <v>0.02059091813862324</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.001854089205153286</v>
+        <v>0.08671575784683228</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.002733040601015091</v>
+        <v>0.01343792863190174</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.003375428495928645</v>
+        <v>0.01949626207351685</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0003281697281636298</v>
+        <v>0.05609843134880066</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.008848939090967178</v>
+        <v>0.03238774091005325</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.009725764393806458</v>
+        <v>0.1447830647230148</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.007342581637203693</v>
+        <v>0.07397826761007309</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.001867800485342741</v>
+        <v>0.0187686812132597</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.001222196966409683</v>
+        <v>0.05159453675150871</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.007523646112531424</v>
+        <v>0.008170410990715027</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.769997268449515e-05</v>
+        <v>0.02094945497810841</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.001237842603586614</v>
+        <v>0.0296822190284729</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0005787962581962347</v>
+        <v>0.024113979190588</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.002907767193391919</v>
+        <v>0.005662088748067617</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.004062262829393148</v>
+        <v>0.02678180672228336</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.001357191591523588</v>
+        <v>0.06553265452384949</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.001182804699055851</v>
+        <v>0.02145589515566826</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.003100480884313583</v>
+        <v>0.003087320830672979</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0004185976868029684</v>
+        <v>0.02294503711163998</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.007041790522634983</v>
+        <v>0.03738222271203995</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.001186167006380856</v>
+        <v>0.03617508336901665</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.003903894452378154</v>
+        <v>0.08140882849693298</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.006798050366342068</v>
+        <v>0.03616063669323921</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.002546838717535138</v>
+        <v>0.01865775138139725</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.001223839586600661</v>
+        <v>0.07401418685913086</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.005289073102176189</v>
+        <v>0.03753320872783661</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.003474568482488394</v>
+        <v>0.08929500728845596</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.002532944781705737</v>
+        <v>0.02732052467763424</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.001039301627315581</v>
+        <v>0.03167469054460526</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.00264592794701457</v>
+        <v>0.02884614840149879</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0001078072818927467</v>
+        <v>0.02570491656661034</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.002276030136272311</v>
+        <v>0.01670347154140472</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.003533277893438935</v>
+        <v>0.03658775240182877</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.001161490334197879</v>
+        <v>0.06182738393545151</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.002506462391465902</v>
+        <v>0.02704433165490627</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.000878970546182245</v>
+        <v>0.0176828857511282</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.000292270677164197</v>
+        <v>0.01168324705213308</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.004319332540035248</v>
+        <v>0.005743864923715591</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.00884255301207304</v>
+        <v>0.1312682032585144</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.006838401313871145</v>
+        <v>0.09321846812963486</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.005706941708922386</v>
+        <v>0.0756346583366394</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.002730644773691893</v>
+        <v>0.1913944035768509</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0254170186817646</v>
+        <v>0.0001206509477924556</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002390559820923954</v>
+        <v>0.05293171852827072</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.007349118124693632</v>
+        <v>0.02531415596604347</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.001793320057913661</v>
+        <v>0.1148452162742615</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.005428114905953407</v>
+        <v>0.01097637414932251</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.001957546686753631</v>
+        <v>0.07168281823396683</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.001565377693623304</v>
+        <v>0.007822887971997261</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.008355538360774517</v>
+        <v>0.005220150575041771</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.007501835469156504</v>
+        <v>0.004816570319235325</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0005586709594354033</v>
+        <v>0.02995128557085991</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0007389122620224953</v>
+        <v>0.02836238592863083</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.002996879396960139</v>
+        <v>0.02148810401558876</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.003732848446816206</v>
+        <v>0.02222537435591221</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.002027290407568216</v>
+        <v>0.05792244523763657</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.002646163105964661</v>
+        <v>0.07384710013866425</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0004626433365046978</v>
+        <v>0.01162424869835377</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0008795771282166243</v>
+        <v>0.0434534065425396</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.005002354271709919</v>
+        <v>0.126398116350174</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.004888719413429499</v>
+        <v>0.06730793416500092</v>
       </c>
       <c r="EC4" t="n">
-        <v>7.064256351441145e-05</v>
+        <v>0.0154044721275568</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0009998991154134274</v>
+        <v>0.02003276161849499</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.005399595946073532</v>
+        <v>0.02266506850719452</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.002117938362061977</v>
+        <v>0.03177212178707123</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.007724652998149395</v>
+        <v>0.1042977869510651</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0003669477591756731</v>
+        <v>0.007244853302836418</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.005653477273881435</v>
+        <v>0.06459785997867584</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.005428913049399853</v>
+        <v>0.0254047866910696</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.005760523490607738</v>
+        <v>0.05472178384661674</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0001332316314801574</v>
+        <v>0.01115853246301413</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.003672848455607891</v>
+        <v>0.0283232107758522</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.00282926601357758</v>
+        <v>0.03643412888050079</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.007144592702388763</v>
+        <v>0.02614308893680573</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.003721348708495498</v>
+        <v>0.01024983264505863</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.000195645698113367</v>
+        <v>0.08520884066820145</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.002484406810253859</v>
+        <v>0.01080103032290936</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.004049504175782204</v>
+        <v>0.1024835705757141</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.002234174171462655</v>
+        <v>0.01613054983317852</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.001606893842108548</v>
+        <v>0.01464631780982018</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.001048346981406212</v>
+        <v>0.02687669917941093</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.001602408243343234</v>
+        <v>0.005728359334170818</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.275471004191786e-05</v>
+        <v>0.02746902778744698</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.001216866890899837</v>
+        <v>0.009182102046906948</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.000117749092169106</v>
+        <v>0.02864318899810314</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.002226943848654628</v>
+        <v>0.02092729508876801</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.002227048622444272</v>
+        <v>0.04011613503098488</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.002697439631447196</v>
+        <v>0.05078901723027229</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.001057391986250877</v>
+        <v>0.01216674782335758</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.002576848957687616</v>
+        <v>0.001620197668671608</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.001128118485212326</v>
+        <v>0.01785904169082642</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.000539882224984467</v>
+        <v>0.06563960760831833</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.006281129084527493</v>
+        <v>0.03744564950466156</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.002075316617265344</v>
+        <v>0.02710073068737984</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0002395205665379763</v>
+        <v>0.03036298230290413</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.001780007383786142</v>
+        <v>0.1141576170921326</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.004210029263049364</v>
+        <v>0.01007483154535294</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.00425872253254056</v>
+        <v>0.008320342749357224</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.003372692968696356</v>
+        <v>0.02993011474609375</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.003440687898546457</v>
+        <v>0.0415315143764019</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.004843751434236765</v>
+        <v>0.06172347068786621</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0001679208362475038</v>
+        <v>0.0111969280987978</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.009456918574869633</v>
+        <v>0.08846437186002731</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.01344944164156914</v>
+        <v>0.06336168944835663</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.009873714298009872</v>
+        <v>0.2337127178907394</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.003339445218443871</v>
+        <v>0.004137846641242504</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.004474913701415062</v>
+        <v>0.1143947541713715</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.008154547773301601</v>
+        <v>0.1272829174995422</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.002288311487063766</v>
+        <v>0.008648106828331947</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.005685648880898952</v>
+        <v>0.02419884689152241</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.001679008011706173</v>
+        <v>0.02017764747142792</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.005726362112909555</v>
+        <v>0.04814331233501434</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.003768683178350329</v>
+        <v>0.08244287967681885</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.002124648075550795</v>
+        <v>0.1680940389633179</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.00466486718505621</v>
+        <v>0.1041932925581932</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.002688753418624401</v>
+        <v>0.03074692748486996</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.005595995113253593</v>
+        <v>0.01239877101033926</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.001243085600435734</v>
+        <v>0.014845235273242</v>
       </c>
     </row>
     <row r="5">
@@ -3280,571 +3280,571 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.496327604399994e-05</v>
+        <v>0.1078983545303345</v>
       </c>
       <c r="B6" t="n">
-        <v>4.64249387732707e-05</v>
+        <v>0.3239060342311859</v>
       </c>
       <c r="C6" t="n">
-        <v>1.418818737874972e-05</v>
+        <v>0.5014264583587646</v>
       </c>
       <c r="D6" t="n">
-        <v>8.719405741430819e-06</v>
+        <v>0.1924586892127991</v>
       </c>
       <c r="E6" t="n">
-        <v>3.765797009691596e-05</v>
+        <v>0.03354926407337189</v>
       </c>
       <c r="F6" t="n">
-        <v>5.206483547226526e-05</v>
+        <v>0.3500078320503235</v>
       </c>
       <c r="G6" t="n">
-        <v>2.368478271819185e-05</v>
+        <v>0.105388879776001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.759364386089146e-05</v>
+        <v>0.1345938444137573</v>
       </c>
       <c r="I6" t="n">
-        <v>1.082360631698975e-05</v>
+        <v>0.05724376812577248</v>
       </c>
       <c r="J6" t="n">
-        <v>7.933462256914936e-06</v>
+        <v>0.1181364953517914</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876167390146293e-06</v>
+        <v>0.7020490169525146</v>
       </c>
       <c r="L6" t="n">
-        <v>2.047024645435158e-05</v>
+        <v>0.3585165143013</v>
       </c>
       <c r="M6" t="n">
-        <v>2.90306779788807e-05</v>
+        <v>0.1105761379003525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.034148408507463e-05</v>
+        <v>0.4272787868976593</v>
       </c>
       <c r="O6" t="n">
-        <v>3.799648402491584e-05</v>
+        <v>0.1353776007890701</v>
       </c>
       <c r="P6" t="n">
-        <v>8.729108230909333e-06</v>
+        <v>0.05251869559288025</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.283039182453649e-05</v>
+        <v>0.1728603839874268</v>
       </c>
       <c r="R6" t="n">
-        <v>2.300335472682491e-05</v>
+        <v>0.03152668476104736</v>
       </c>
       <c r="S6" t="n">
-        <v>3.251394082326442e-05</v>
+        <v>0.08144045621156693</v>
       </c>
       <c r="T6" t="n">
-        <v>1.531469752080739e-05</v>
+        <v>0.1343362033367157</v>
       </c>
       <c r="U6" t="n">
-        <v>2.525751824578037e-06</v>
+        <v>0.00819678045809269</v>
       </c>
       <c r="V6" t="n">
-        <v>9.088996193895582e-06</v>
+        <v>0.2791779041290283</v>
       </c>
       <c r="W6" t="n">
-        <v>2.603716893645469e-05</v>
+        <v>0.09661126136779785</v>
       </c>
       <c r="X6" t="n">
-        <v>1.941247865033802e-05</v>
+        <v>0.2049350589513779</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.531490827095695e-05</v>
+        <v>0.03812780231237411</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.266039816982811e-06</v>
+        <v>0.003491883166134357</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.118560354982037e-07</v>
+        <v>0.1592843234539032</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.393005267251283e-06</v>
+        <v>0.1171979010105133</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.736380909278523e-05</v>
+        <v>0.2130365520715714</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.86992110684514e-09</v>
+        <v>0.004965409636497498</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.169359428691678e-05</v>
+        <v>0.02367172762751579</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.167060599982506e-05</v>
+        <v>0.1710046231746674</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.108394957962446e-05</v>
+        <v>0.1087890937924385</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.113135112973396e-05</v>
+        <v>0.05384793505072594</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.182443975267233e-05</v>
+        <v>0.03318536281585693</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.023215529334266e-06</v>
+        <v>0.2528100907802582</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.463633225284866e-06</v>
+        <v>0.06064004823565483</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.90772937003203e-07</v>
+        <v>0.109574481844902</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.714218332286691e-06</v>
+        <v>0.1033710315823555</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.316387149738148e-06</v>
+        <v>0.009024022147059441</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.252667607332114e-05</v>
+        <v>0.08648620545864105</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.450358922738815e-06</v>
+        <v>0.01560826506465673</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.761123924865387e-06</v>
+        <v>0.09447165578603745</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.638567927235272e-06</v>
+        <v>0.1381689757108688</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.182057404657826e-06</v>
+        <v>0.06330106407403946</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.840771074057557e-05</v>
+        <v>0.06375181674957275</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.661154055909719e-05</v>
+        <v>0.1540105193853378</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.763170778052881e-05</v>
+        <v>0.3571135699748993</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.014281770039815e-05</v>
+        <v>0.004411499947309494</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.411348345456645e-05</v>
+        <v>0.2295466959476471</v>
       </c>
       <c r="AY6" t="n">
-        <v>6.263101386139169e-05</v>
+        <v>0.04563992470502853</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.089672059606528e-05</v>
+        <v>0.1304799467325211</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.730031716666417e-06</v>
+        <v>0.04842559248209</v>
       </c>
       <c r="BB6" t="n">
-        <v>6.539189598697703e-06</v>
+        <v>0.0854201540350914</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.813305061659776e-07</v>
+        <v>0.1205960959196091</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.065406831912696e-05</v>
+        <v>0.146952822804451</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.858387986430898e-05</v>
+        <v>0.01922177895903587</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.315680831088684e-06</v>
+        <v>0.0626014918088913</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.931557668896858e-06</v>
+        <v>0.1629976034164429</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.316779980697902e-05</v>
+        <v>0.048381257802248</v>
       </c>
       <c r="BI6" t="n">
-        <v>9.075353773368988e-06</v>
+        <v>0.002815566025674343</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6.42264694761252e-06</v>
+        <v>0.2174627631902695</v>
       </c>
       <c r="BK6" t="n">
-        <v>8.555228305340279e-06</v>
+        <v>0.09279466420412064</v>
       </c>
       <c r="BL6" t="n">
-        <v>4.068609541718615e-06</v>
+        <v>0.1186241209506989</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.635108674236108e-06</v>
+        <v>0.1704462170600891</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.216215332533466e-05</v>
+        <v>0.1098782420158386</v>
       </c>
       <c r="BO6" t="n">
-        <v>8.83791744854534e-06</v>
+        <v>0.1537516266107559</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.216278178617358e-05</v>
+        <v>0.0785868763923645</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.774738722015172e-06</v>
+        <v>0.05620753020048141</v>
       </c>
       <c r="BR6" t="n">
-        <v>5.83559631195385e-06</v>
+        <v>0.01360216736793518</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.697083644103259e-05</v>
+        <v>0.1013253778219223</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.0604478524765e-06</v>
+        <v>0.03533549979329109</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.971218575316016e-06</v>
+        <v>0.06421779096126556</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.163619910788839e-06</v>
+        <v>0.008445963263511658</v>
       </c>
       <c r="BW6" t="n">
-        <v>6.118622422945919e-06</v>
+        <v>0.1426778137683868</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.620238228701055e-05</v>
+        <v>0.1267059594392776</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.262258466449566e-06</v>
+        <v>0.2437680661678314</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.220606645802036e-05</v>
+        <v>0.1874665468931198</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.190288730867906e-05</v>
+        <v>0.007177490741014481</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.124090082768817e-07</v>
+        <v>0.12699094414711</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.266307845071424e-05</v>
+        <v>0.01988347433507442</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.041863808699418e-06</v>
+        <v>0.02628662623465061</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.45276453117549e-06</v>
+        <v>0.0609264075756073</v>
       </c>
       <c r="CF6" t="n">
-        <v>3.465156851234497e-06</v>
+        <v>0.1430607438087463</v>
       </c>
       <c r="CG6" t="n">
-        <v>4.611654276232002e-06</v>
+        <v>0.0401659794151783</v>
       </c>
       <c r="CH6" t="n">
-        <v>5.569382665271405e-06</v>
+        <v>0.0172798540443182</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.571243228681851e-05</v>
+        <v>0.0443684495985508</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.045101907948265e-05</v>
+        <v>7.854239083826542e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.533526847197209e-05</v>
+        <v>0.01702609844505787</v>
       </c>
       <c r="CL6" t="n">
-        <v>4.370883289084304e-06</v>
+        <v>0.01803273521363735</v>
       </c>
       <c r="CM6" t="n">
-        <v>3.823237420874648e-06</v>
+        <v>0.04904216527938843</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.64634438988287e-05</v>
+        <v>0.4933815002441406</v>
       </c>
       <c r="CO6" t="n">
-        <v>4.29496867582202e-06</v>
+        <v>0.02624019607901573</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.378590968670323e-05</v>
+        <v>0.1570481061935425</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.321663709561108e-06</v>
+        <v>0.2234268188476562</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.283117398998002e-05</v>
+        <v>0.2542412579059601</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.271266930620186e-05</v>
+        <v>0.1115032434463501</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.772360701579601e-05</v>
+        <v>0.1570333391427994</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.065264314092929e-05</v>
+        <v>0.08739425241947174</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.897459808082203e-06</v>
+        <v>0.03386685252189636</v>
       </c>
       <c r="CW6" t="n">
-        <v>6.310516710072989e-06</v>
+        <v>0.05605905503034592</v>
       </c>
       <c r="CX6" t="n">
-        <v>5.536956905416446e-06</v>
+        <v>0.1589818000793457</v>
       </c>
       <c r="CY6" t="n">
-        <v>8.666534085932653e-07</v>
+        <v>0.01011261437088251</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.026693775609601e-06</v>
+        <v>0.02967824041843414</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.944237192219589e-05</v>
+        <v>0.09735643863677979</v>
       </c>
       <c r="DB6" t="n">
-        <v>8.932855052989908e-06</v>
+        <v>0.01071903575211763</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.429063649993623e-05</v>
+        <v>0.03829021006822586</v>
       </c>
       <c r="DD6" t="n">
-        <v>4.181940312264487e-06</v>
+        <v>0.06514081358909607</v>
       </c>
       <c r="DE6" t="n">
-        <v>2.07806679100031e-05</v>
+        <v>0.05961409583687782</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.807813714549411e-05</v>
+        <v>0.2191918939352036</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.025198773480952e-05</v>
+        <v>0.05161518603563309</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.498793037375435e-05</v>
+        <v>0.08905360847711563</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.089928173314547e-05</v>
+        <v>0.9373815059661865</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.487561257818015e-05</v>
+        <v>0.2872843742370605</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.878849070635624e-05</v>
+        <v>0.1027779877185822</v>
       </c>
       <c r="DL6" t="n">
-        <v>6.882324669277295e-06</v>
+        <v>0.3469577729701996</v>
       </c>
       <c r="DM6" t="n">
-        <v>7.537720193795394e-06</v>
+        <v>0.247342973947525</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.476454963267315e-05</v>
+        <v>0.1403914093971252</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.142820474342443e-05</v>
+        <v>0.03416815400123596</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.826846295851283e-06</v>
+        <v>0.06488751620054245</v>
       </c>
       <c r="DQ6" t="n">
-        <v>7.86024520493811e-06</v>
+        <v>0.01753243617713451</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.312475994083798e-06</v>
+        <v>0.4151410162448883</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.133407295128563e-05</v>
+        <v>0.02821880578994751</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.072228042175993e-05</v>
+        <v>0.1607058942317963</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.254571518278681e-05</v>
+        <v>0.1006589829921722</v>
       </c>
       <c r="DV6" t="n">
-        <v>7.531604751420673e-06</v>
+        <v>0.04537014290690422</v>
       </c>
       <c r="DW6" t="n">
-        <v>7.206514965218958e-06</v>
+        <v>0.07013492286205292</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.332687588728731e-05</v>
+        <v>0.1949136257171631</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.777960617095232e-06</v>
+        <v>0.1942900419235229</v>
       </c>
       <c r="DZ6" t="n">
-        <v>4.13280758948531e-07</v>
+        <v>0.09613460302352905</v>
       </c>
       <c r="EA6" t="n">
-        <v>7.048354746075347e-06</v>
+        <v>0.1415358185768127</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.108796616084874e-05</v>
+        <v>0.155291959643364</v>
       </c>
       <c r="EC6" t="n">
-        <v>8.846305945553468e-07</v>
+        <v>0.08353006094694138</v>
       </c>
       <c r="ED6" t="n">
-        <v>6.698060133203398e-07</v>
+        <v>0.03978476300835609</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.483112646383233e-05</v>
+        <v>0.00968107208609581</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.496145614510169e-06</v>
+        <v>0.07767715305089951</v>
       </c>
       <c r="EG6" t="n">
-        <v>4.987624038221838e-07</v>
+        <v>0.008844099938869476</v>
       </c>
       <c r="EH6" t="n">
-        <v>4.174730293016182e-06</v>
+        <v>0.2150052934885025</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.184090069727972e-05</v>
+        <v>0.06708869338035583</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.583409584782203e-06</v>
+        <v>0.1191922202706337</v>
       </c>
       <c r="EK6" t="n">
-        <v>3.73272928300139e-06</v>
+        <v>0.1033428758382797</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.795510434021708e-05</v>
+        <v>0.08480028808116913</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.627868550713174e-05</v>
+        <v>0.01827826164662838</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.212479401146993e-05</v>
+        <v>0.01186495646834373</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.032990985549986e-05</v>
+        <v>0.02116474881768227</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.386295571137452e-05</v>
+        <v>0.04189615696668625</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.32994966104161e-06</v>
+        <v>0.1870827823877335</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.879019575630082e-06</v>
+        <v>0.06303359568119049</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.222073933604406e-06</v>
+        <v>0.263666182756424</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.297917333431542e-05</v>
+        <v>0.2501001060009003</v>
       </c>
       <c r="EU6" t="n">
-        <v>2.919648613897152e-05</v>
+        <v>0.07082086056470871</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.75553900084924e-05</v>
+        <v>0.1231162026524544</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.548842919874005e-05</v>
+        <v>0.03377533704042435</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.503158723106026e-06</v>
+        <v>0.02478770725429058</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.668255547177978e-06</v>
+        <v>0.02053900063037872</v>
       </c>
       <c r="EZ6" t="n">
-        <v>4.93600146000972e-06</v>
+        <v>0.1493547558784485</v>
       </c>
       <c r="FA6" t="n">
-        <v>4.639439794118516e-06</v>
+        <v>0.03978454321622849</v>
       </c>
       <c r="FB6" t="n">
-        <v>3.393659198991372e-06</v>
+        <v>0.1372378766536713</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.078929901472293e-05</v>
+        <v>0.108726792037487</v>
       </c>
       <c r="FD6" t="n">
-        <v>9.538867743685842e-06</v>
+        <v>0.004553678445518017</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.098571829061257e-05</v>
+        <v>0.0992683470249176</v>
       </c>
       <c r="FF6" t="n">
-        <v>7.791020379954716e-07</v>
+        <v>0.03708555549383163</v>
       </c>
       <c r="FG6" t="n">
-        <v>9.779218999028672e-07</v>
+        <v>0.05078397318720818</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.100272286043037e-05</v>
+        <v>0.177927240729332</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.571571141947061e-06</v>
+        <v>0.1188024207949638</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.489984348765574e-06</v>
+        <v>0.110741063952446</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.099194651033031e-05</v>
+        <v>0.008526388555765152</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.749833038251381e-05</v>
+        <v>0.008390216156840324</v>
       </c>
       <c r="FM6" t="n">
-        <v>3.759013452508952e-06</v>
+        <v>0.09202123433351517</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.648967347340658e-05</v>
+        <v>0.05979305505752563</v>
       </c>
       <c r="FO6" t="n">
-        <v>3.88498210668331e-06</v>
+        <v>0.1173770129680634</v>
       </c>
       <c r="FP6" t="n">
-        <v>2.941725597338518e-06</v>
+        <v>0.05203667283058167</v>
       </c>
       <c r="FQ6" t="n">
-        <v>4.962493676430313e-06</v>
+        <v>0.1742190420627594</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.476728695910424e-05</v>
+        <v>0.3991396725177765</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.000882497872226e-05</v>
+        <v>0.07794632762670517</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.2121468646219e-05</v>
+        <v>0.590254008769989</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.989998054341413e-05</v>
+        <v>0.03672999888658524</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.259993587154895e-05</v>
+        <v>0.009732622653245926</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.848625445039943e-05</v>
+        <v>0.02733433060348034</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.72166674019536e-05</v>
+        <v>0.1875709593296051</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.262892146769445e-05</v>
+        <v>0.02788856253027916</v>
       </c>
       <c r="FZ6" t="n">
-        <v>5.245120973995654e-06</v>
+        <v>0.1494457423686981</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.310107811354101e-05</v>
+        <v>0.09149762988090515</v>
       </c>
       <c r="GB6" t="n">
-        <v>7.58571331971325e-07</v>
+        <v>0.02851427160203457</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.21082575788023e-05</v>
+        <v>0.1952648311853409</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.391027126373956e-05</v>
+        <v>0.07752884924411774</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.716159385978244e-05</v>
+        <v>0.04413720965385437</v>
       </c>
       <c r="GF6" t="n">
-        <v>6.642008884227835e-06</v>
+        <v>0.320434182882309</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.310986590397079e-06</v>
+        <v>0.06081423908472061</v>
       </c>
     </row>
     <row r="7">
@@ -4413,6 +4413,1144 @@
         <v>0</v>
       </c>
       <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.089651558951665e-15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.169279563528722e-15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.726768671931787e-15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.705291939795917e-15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.936527593352486e-15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.31851499086033e-15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.412097016210454e-16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.600597827737326e-16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.506852357675825e-16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.735575408383458e-16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.245434806253711e-15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.312927538023767e-17</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.561262245686559e-15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5467832943819e-16</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.070490530779433e-16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.718992190087126e-16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.350862437962143e-15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.649472804346683e-16</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.061305301871913e-16</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.643449111404815e-15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.00086683596989e-15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.07057046951383e-16</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.427575367768743e-17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.380317959390846e-16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.298390254579853e-16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.237848231645041e-15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.133488160950035e-15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3.724690536790245e-16</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.022525336082285e-16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.670032196173182e-16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.014801918890738e-16</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.923253225150447e-16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.353448436805098e-17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>3.365905644481249e-16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1.744023262462949e-15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5.825050872223744e-16</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.019915759920692e-15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>9.077127994088223e-17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6.281940973368305e-16</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.320174600356785e-16</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.493747385180756e-16</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7.186111586870829e-16</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.749142094321443e-16</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>8.37471956983049e-16</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3.18640956913961e-17</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.255800262439123e-16</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5.983320037209394e-15</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.727762982732745e-15</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.115658778077499e-16</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>7.964050997826412e-16</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>7.259140650000726e-16</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.065884873242893e-15</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.752790159346149e-16</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3.431746309564713e-16</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>4.873067366431083e-16</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.773232134857829e-15</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.364135708943414e-16</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>8.952327218430959e-16</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.256409688134698e-15</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1.356890665568634e-15</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.31400994025124e-15</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.226300850488347e-16</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5.419795370148212e-16</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.377422744210078e-15</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.204229070452044e-15</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2.329847236530902e-16</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.949400966158522e-17</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>2.562410614232293e-15</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1.920750757676928e-15</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2.070408773962554e-15</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.129304029948836e-15</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>6.096763689230754e-16</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2.516408890141622e-16</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>3.220351714583306e-15</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.542345485345308e-16</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>8.447565462085544e-16</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1.898845043057943e-17</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4.358707668002094e-16</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>3.727601418453044e-16</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>2.386845142342828e-16</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.788461480494588e-16</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>4.108007620834094e-16</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>1.517997179169349e-15</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6.142686109861738e-16</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>2.294881187072653e-16</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>5.998885326406376e-16</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>6.072262070091342e-17</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1.235414229531546e-16</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>2.641681886666981e-16</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>3.329904891338369e-18</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>3.066950871462e-15</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>2.662910226391068e-15</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>7.719674581005258e-16</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>1.072489295011754e-15</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>2.509933852655455e-16</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>2.038790092832735e-15</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>7.478196075654897e-16</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>2.652717137782928e-16</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>9.178755007099794e-16</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2.038101031530144e-16</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1.543991561529399e-15</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>7.914433925358623e-16</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>8.469328385478467e-16</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>5.203423980145653e-16</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>9.326924627678417e-17</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>1.610272630805877e-16</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>5.536843941453528e-17</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>2.806562408503747e-16</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>2.269820446778714e-15</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>1.284165369629445e-15</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>1.088227378929975e-15</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1.900668030014002e-15</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>3.988147482479045e-15</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>2.00886378353153e-15</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>3.515600453760521e-16</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>3.092857162395536e-16</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>4.269599007857553e-16</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>1.354427917274492e-16</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>2.847078111953288e-16</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1.084624418409711e-15</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>2.043895160405837e-15</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>1.385736372587379e-15</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>7.531709499680056e-16</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>6.486620661720795e-17</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>1.695710303096576e-15</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>2.10109063665271e-16</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>7.659124960166376e-16</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>3.014624352354182e-15</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>4.213526750238299e-16</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1.037264172585652e-16</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>1.810904772219912e-15</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>1.067584021335086e-15</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>1.201708300401015e-15</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>1.309624771273965e-16</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>5.828778875982847e-16</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>1.474461062109017e-15</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>9.580425442226072e-16</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>8.264807515803588e-16</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>8.929404389295889e-16</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>3.951106943453852e-16</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>9.014384028520361e-16</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>6.964619220957628e-17</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>6.253851772650577e-16</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>3.98046087024095e-16</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>6.356472990583987e-16</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>2.496764607908019e-16</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>3.150821215162924e-16</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>8.472990744184158e-16</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>1.598723018932709e-15</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>7.024265295869805e-16</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>4.797215566004461e-16</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>1.781052075375779e-16</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>9.394793936670556e-16</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>2.862838483425935e-16</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>1.717522989675151e-15</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>6.747255346568903e-16</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>2.619274688838553e-16</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>2.324343639956118e-16</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>2.372016507112162e-16</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>1.841981405203047e-16</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>8.587758679278991e-17</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>1.530904055461373e-16</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>8.707104298058142e-17</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>1.028405200574107e-16</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>2.135228976102814e-16</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>1.078584332341959e-15</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>2.168678783645919e-15</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>1.227419985514919e-15</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>9.703509917373962e-16</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>6.245307327795149e-16</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>4.497472311190437e-16</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>1.69829322419011e-15</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>5.80755646548939e-16</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>1.342776661447654e-15</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>1.252877454865529e-15</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>1.930128894710691e-15</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>1.588523365819228e-15</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>1.669383883821202e-15</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>3.661382235521274e-16</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>1.276071758060193e-15</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>1.699288911419608e-15</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>5.50939663289114e-16</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>4.823579466487751e-16</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>1.705607141931414e-15</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>7.964470808530895e-17</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>1.636350975306824e-15</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>9.480226738521808e-16</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>3.719774039927026e-16</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>1.44192250319848e-15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" t="n">
         <v>0</v>
       </c>
     </row>
